--- a/data.xlsx
+++ b/data.xlsx
@@ -16,83 +16,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Kode Barang</t>
-  </si>
-  <si>
-    <t>Nama Barang</t>
-  </si>
-  <si>
-    <t>Merk</t>
-  </si>
-  <si>
-    <t>Harga Modal</t>
-  </si>
-  <si>
-    <t>Harga Jual</t>
-  </si>
-  <si>
-    <t>Kategori</t>
-  </si>
-  <si>
-    <t>Stok</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Tanggal Expired</t>
-  </si>
-  <si>
-    <t>Catatan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>kode</t>
   </si>
   <si>
     <t xml:space="preserve">Termometer digital </t>
   </si>
   <si>
-    <t>Onemed</t>
-  </si>
-  <si>
     <t>cek gula darah</t>
   </si>
   <si>
-    <t>sinoheart</t>
-  </si>
-  <si>
     <t>Alcohol swab</t>
   </si>
   <si>
-    <t>OneMed</t>
-  </si>
-  <si>
     <t>Blood lancets</t>
   </si>
   <si>
-    <t>autoclick</t>
-  </si>
-  <si>
     <t>Termometer infra red</t>
   </si>
   <si>
-    <t>Omicron</t>
-  </si>
-  <si>
     <t>Set Rawat Luka</t>
   </si>
   <si>
     <t>Sarung Tangan Karet</t>
   </si>
   <si>
-    <t>Safegloves</t>
-  </si>
-  <si>
     <t>Kotak P3K</t>
   </si>
   <si>
@@ -102,21 +57,12 @@
     <t>Electronic Blood Pressure</t>
   </si>
   <si>
-    <t>Electronik</t>
-  </si>
-  <si>
     <t>​Plesterin WP</t>
   </si>
   <si>
-    <t>GP Care</t>
-  </si>
-  <si>
     <t>Alkohol 70% 100ml</t>
   </si>
   <si>
-    <t>LSI</t>
-  </si>
-  <si>
     <t>Povidone Iodine 30ml</t>
   </si>
   <si>
@@ -126,18 +72,12 @@
     <t>​I.V. Catheter no 22</t>
   </si>
   <si>
-    <t>GEA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pulse Oximeter </t>
   </si>
   <si>
     <t xml:space="preserve">​Mesin Nebulizer </t>
   </si>
   <si>
-    <t>Upheal</t>
-  </si>
-  <si>
     <t>Celana sunat</t>
   </si>
   <si>
@@ -147,9 +87,6 @@
     <t>Kasa hidrofik 16 x 16</t>
   </si>
   <si>
-    <t>Narita Farma</t>
-  </si>
-  <si>
     <t>NGT 18Fr</t>
   </si>
   <si>
@@ -165,9 +102,6 @@
     <t>​I.V. Catheter No 22G</t>
   </si>
   <si>
-    <t>Onehealth</t>
-  </si>
-  <si>
     <t>​I.V. Catheter No 20G</t>
   </si>
   <si>
@@ -177,15 +111,9 @@
     <t>​Alcohol Pads</t>
   </si>
   <si>
-    <t>Avico</t>
-  </si>
-  <si>
     <t>Plesterin bulat soft</t>
   </si>
   <si>
-    <t>Plesterin</t>
-  </si>
-  <si>
     <t>Syringe 5 ml</t>
   </si>
   <si>
@@ -202,9 +130,6 @@
   </si>
   <si>
     <t>Needle no 24</t>
-  </si>
-  <si>
-    <t>Terumo</t>
   </si>
 </sst>
 </file>
@@ -225,14 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -263,13 +188,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -491,7 +416,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
+    <col customWidth="1" min="1" max="1" width="24.43"/>
     <col customWidth="1" min="2" max="2" width="15.0"/>
     <col customWidth="1" min="3" max="3" width="25.0"/>
     <col customWidth="1" min="4" max="4" width="15.14"/>
@@ -509,794 +434,452 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="4">
+        <v>20000.0</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f t="shared" ref="C2:C37" si="1">UPPER(LEFT(A2,3))&amp;"-"&amp;TEXT(ROW()-1,"000")</f>
+        <v>TER-001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>CEK-002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B4" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ALC-003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>BLO-004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B6" s="4">
+        <v>55000.0</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>TER-005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B7" s="4">
+        <v>17000.0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SET-006</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B8" s="4">
+        <v>45000.0</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SAR-007</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B9" s="4">
+        <v>35000.0</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KOT-008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B37" si="1">UPPER(LEFT(C2,3)) &amp; "-" &amp; UPPER(LEFT(D2,3)) &amp; "-" &amp; TEXT(A2,"000")</f>
-        <v>TER-ONE-001</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B10" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​UL-009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B11" s="4">
+        <v>70000.0</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ELE-010</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="B12" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​PL-011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
         <v>18000.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>CEK-SIN-002</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>TER-012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B14" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ALK-013</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
-        <v>46000.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>50000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ALC-ONE-003</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B15" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>POV-014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B16" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>TES-015</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3">
-        <v>9500.0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B17" s="4">
+        <v>8500.0</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.-016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>57000.0</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PUL-017</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>76500.0</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​ME-018</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>25000.0</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>CEL-019</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>120000.0</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​TE-020</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KAS-021</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
         <v>15000.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>BLO-AUT-004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>NGT-022</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>FOL-023</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>NAS-024</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
         <v>10000.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​SY-025</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8500.0</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.-026</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8500.0</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.-027</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>INF-028</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
         <v>15000.0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>TER-OMI-005</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
-        <v>47000.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>55000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SET-ONE-006</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13500.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SAR-SAF-007</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3">
-        <v>37000.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>KOT-ONE-008</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>28000.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>35000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​UL-ONE-009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3500.0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>​AL-029</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PLE-030</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SYR-031</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SYR-032</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SYR-033</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
         <v>5000.0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ELE-ELE-010</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3">
-        <v>63000.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>70000.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​PL-ONE-011</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3">
-        <v>650.0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>DOB-034</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12000.0</v>
+      </c>
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>URI-035</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
         <v>1000.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>TER-GP -012</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <v>16000.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>18000.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ALK-LSI-013</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4500.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>POV-ONE-014</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7500.0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>TES-ONE-015</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3000.0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-GEA-016</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3600.0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8500.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>PUL-PUL-017</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50000.0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>57000.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​ME-UPH-018</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3">
-        <v>65000.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>76500.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>CEL-CEL-019</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​TE-OMI-020</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3">
-        <v>110000.0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>120000.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>KAS-NAR-021</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3650.0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>NGT-ONE-022</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3">
-        <v>11000.0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>FOL-GEA-023</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>NAS-GEA-024</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7000.0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​SY-ONE-025</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6000.0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-ONE-026</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3650.0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>8500.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-ONE-027</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3650.0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>8500.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INF-ONE-028</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3000.0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>​AL-AVI-029</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="3">
-        <v>10000.0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>PLE-PLE-030</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-ONE-031</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="3">
-        <v>650.0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-ONE-032</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-ONE-033</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DOB-ONE-034</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2500.0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>URI-ONE-035</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5500.0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>NEE-TER-036</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1000.0</v>
+      <c r="C37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>NEE-036</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/AuLScyqlgvPjald96rVuuiIUGjJaF1unrHNJb44GjM="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>nama</t>
   </si>
@@ -27,25 +22,49 @@
     <t>kode</t>
   </si>
   <si>
+    <t>stok</t>
+  </si>
+  <si>
+    <t>merk</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>Thermoone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Termometer digital </t>
   </si>
   <si>
+    <t xml:space="preserve"> Sinoheart</t>
+  </si>
+  <si>
     <t>cek gula darah</t>
   </si>
   <si>
-    <t>Alcohol swab</t>
+    <t>onemed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol swab </t>
   </si>
   <si>
     <t>Blood lancets</t>
   </si>
   <si>
-    <t>Termometer infra red</t>
+    <t>omicron</t>
+  </si>
+  <si>
+    <t>Termometer tembak</t>
   </si>
   <si>
     <t>Set Rawat Luka</t>
   </si>
   <si>
-    <t>Sarung Tangan Karet</t>
+    <t xml:space="preserve">Safegloves </t>
+  </si>
+  <si>
+    <t>Sarung Tangan M</t>
   </si>
   <si>
     <t>Kotak P3K</t>
@@ -54,34 +73,52 @@
     <t>​Ultrafix 5x1cm</t>
   </si>
   <si>
-    <t>Electronic Blood Pressure</t>
+    <t>Tensimeter digital</t>
   </si>
   <si>
     <t>​Plesterin WP</t>
   </si>
   <si>
+    <t>GP care</t>
+  </si>
+  <si>
+    <t>LSI</t>
+  </si>
+  <si>
     <t>Alkohol 70% 100ml</t>
   </si>
   <si>
+    <t>Onemed</t>
+  </si>
+  <si>
     <t>Povidone Iodine 30ml</t>
   </si>
   <si>
     <t>Test Pack</t>
   </si>
   <si>
+    <t>GEA</t>
+  </si>
+  <si>
     <t>​I.V. Catheter no 22</t>
   </si>
   <si>
     <t xml:space="preserve">Pulse Oximeter </t>
   </si>
   <si>
+    <t>upheal</t>
+  </si>
+  <si>
     <t xml:space="preserve">​Mesin Nebulizer </t>
   </si>
   <si>
     <t>Celana sunat</t>
   </si>
   <si>
-    <t>​Tensimeter Digital lengan</t>
+    <t>​Tensimeter pergelangan</t>
+  </si>
+  <si>
+    <t>Narita</t>
   </si>
   <si>
     <t>Kasa hidrofik 16 x 16</t>
@@ -99,18 +136,30 @@
     <t>​Syringe 50cc NT</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>​I.V. Catheter No 22G</t>
   </si>
   <si>
     <t>​I.V. Catheter No 20G</t>
   </si>
   <si>
-    <t>Infusion set</t>
+    <t>Onehealth</t>
+  </si>
+  <si>
+    <t>Infus set</t>
+  </si>
+  <si>
+    <t>Avico</t>
   </si>
   <si>
     <t>​Alcohol Pads</t>
   </si>
   <si>
+    <t>Plesterin</t>
+  </si>
+  <si>
     <t>Plesterin bulat soft</t>
   </si>
   <si>
@@ -129,7 +178,97 @@
     <t>urin bag</t>
   </si>
   <si>
+    <t>Terumo</t>
+  </si>
+  <si>
     <t>Needle no 24</t>
+  </si>
+  <si>
+    <t>Stetoskop</t>
+  </si>
+  <si>
+    <t>Tourniquet</t>
+  </si>
+  <si>
+    <t>pispot</t>
+  </si>
+  <si>
+    <t>Easytouch</t>
+  </si>
+  <si>
+    <t>strip chole</t>
+  </si>
+  <si>
+    <t>alat penggerus</t>
+  </si>
+  <si>
+    <t>T-Towel</t>
+  </si>
+  <si>
+    <t>Wash gloves</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>alkohol 70% 300ml</t>
+  </si>
+  <si>
+    <t>Omicron</t>
+  </si>
+  <si>
+    <t>sinoheart</t>
+  </si>
+  <si>
+    <t>Strip glucosa 25</t>
+  </si>
+  <si>
+    <t>kasur decubitus</t>
+  </si>
+  <si>
+    <t>Alat stik 3 in 1</t>
+  </si>
+  <si>
+    <t>Strip chole</t>
+  </si>
+  <si>
+    <t>Tensimeter manual</t>
+  </si>
+  <si>
+    <t>Syringe 50cc LT</t>
+  </si>
+  <si>
+    <t>Tensi + stetoskop</t>
+  </si>
+  <si>
+    <t>GlowMed</t>
+  </si>
+  <si>
+    <t>Arm Sling</t>
+  </si>
+  <si>
+    <t>Wing needle</t>
+  </si>
+  <si>
+    <t>Chilli plast</t>
+  </si>
+  <si>
+    <t>Plester coklat</t>
+  </si>
+  <si>
+    <t>Tensimeter BW750</t>
+  </si>
+  <si>
+    <t>Gel Jelly lubricant</t>
+  </si>
+  <si>
+    <t>Oximeter saturasi</t>
+  </si>
+  <si>
+    <t>iTrust</t>
+  </si>
+  <si>
+    <t>Oximeter saturasi anak</t>
   </si>
 </sst>
 </file>
@@ -150,14 +289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -179,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -187,15 +326,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -416,11 +552,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.43"/>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
-    <col customWidth="1" min="4" max="4" width="15.14"/>
-    <col customWidth="1" min="5" max="6" width="15.0"/>
+    <col customWidth="1" min="1" max="1" width="33.29"/>
+    <col customWidth="1" min="2" max="2" width="12.57"/>
+    <col customWidth="1" min="3" max="3" width="15.57"/>
+    <col customWidth="1" min="4" max="4" width="7.0"/>
+    <col customWidth="1" min="5" max="5" width="15.0"/>
+    <col customWidth="1" min="6" max="6" width="29.14"/>
     <col customWidth="1" min="7" max="7" width="18.0"/>
     <col customWidth="1" min="8" max="8" width="10.0"/>
     <col customWidth="1" min="9" max="9" width="12.0"/>
@@ -440,9 +577,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -451,463 +594,1285 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="str">
+        <f t="shared" ref="A2:A63" si="1">F2 &amp; " - " &amp; E2
+</f>
+        <v>Termometer digital  - Thermoone</v>
       </c>
       <c r="B2" s="4">
         <v>20000.0</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f t="shared" ref="C2:C37" si="1">UPPER(LEFT(A2,3))&amp;"-"&amp;TEXT(ROW()-1,"000")</f>
-        <v>TER-001</v>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C63" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
+</f>
+        <v>TERM-TH-001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>cek gula darah -  Sinoheart</v>
       </c>
       <c r="B3" s="4">
         <v>50000.0</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>CEK-002</v>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>CEK - S-002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alcohol swab  - onemed</v>
       </c>
       <c r="B4" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ALC-003</v>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALCO-ON-003</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Blood lancets - onemed</v>
       </c>
       <c r="B5" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>BLO-004</v>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOO-ON-004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
+      <c r="A6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Termometer tembak - omicron</v>
       </c>
       <c r="B6" s="4">
         <v>55000.0</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TER-005</v>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TERM-OM-005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Set Rawat Luka - onemed</v>
       </c>
       <c r="B7" s="4">
         <v>17000.0</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SET-006</v>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SET -ON-006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Sarung Tangan M - Safegloves </v>
       </c>
       <c r="B8" s="4">
         <v>45000.0</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SAR-007</v>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SARU-SA-007</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Kotak P3K - onemed</v>
       </c>
       <c r="B9" s="4">
         <v>35000.0</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>KOT-008</v>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>KOTA-ON-008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
+      <c r="A10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Ultrafix 5x1cm - onemed</v>
       </c>
       <c r="B10" s="4">
         <v>5000.0</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​UL-009</v>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​ULT-ON-009</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - </v>
       </c>
       <c r="B11" s="4">
         <v>70000.0</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ELE-010</v>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS--010</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Plesterin WP - onemed</v>
       </c>
       <c r="B12" s="4">
         <v>1000.0</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​PL-011</v>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​PLE-ON-011</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Termometer digital  - GP care</v>
       </c>
       <c r="B13" s="4">
         <v>18000.0</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TER-012</v>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TERM-GP-012</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
+      <c r="A14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alkohol 70% 100ml - LSI</v>
       </c>
       <c r="B14" s="4">
         <v>10000.0</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ALK-013</v>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALKO-LS-013</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Povidone Iodine 30ml - Onemed</v>
       </c>
       <c r="B15" s="4">
         <v>10000.0</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>POV-014</v>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POVI-ON-014</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
+      <c r="A16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Test Pack - Onemed</v>
       </c>
       <c r="B16" s="4">
         <v>5000.0</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>TES-015</v>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TEST-ON-015</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
+      <c r="A17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.V. Catheter no 22 - GEA</v>
       </c>
       <c r="B17" s="4">
         <v>8500.0</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-016</v>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​I.V-GE-016</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Pulse Oximeter  - </v>
       </c>
       <c r="B18" s="4">
         <v>57000.0</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>PUL-017</v>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PULS--017</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Mesin Nebulizer  - upheal</v>
       </c>
       <c r="B19" s="4">
         <v>76500.0</v>
       </c>
-      <c r="C19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​ME-018</v>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​MES-UP-018</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Celana sunat - </v>
       </c>
       <c r="B20" s="4">
-        <v>25000.0</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>CEL-019</v>
+        <v>15000.0</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>CELA--019</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Tensimeter pergelangan - omicron</v>
       </c>
       <c r="B21" s="4">
         <v>120000.0</v>
       </c>
-      <c r="C21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​TE-020</v>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​TEN-OM-020</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Kasa hidrofik 16 x 16 - Narita</v>
       </c>
       <c r="B22" s="4">
         <v>5000.0</v>
       </c>
-      <c r="C22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>KAS-021</v>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>KASA-NA-021</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>NGT 18Fr - Onemed</v>
       </c>
       <c r="B23" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>NGT-022</v>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>NGT -ON-022</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Foley Catheter 18Fr - GEA</v>
       </c>
       <c r="B24" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>FOL-023</v>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FOLE-GE-023</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Nasal Dewasa - GEA</v>
       </c>
       <c r="B25" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>NAS-024</v>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>NASA-GE-024</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Syringe 50cc NT - Onemed</v>
       </c>
       <c r="B26" s="4">
         <v>10000.0</v>
       </c>
-      <c r="C26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​SY-025</v>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​SYR-ON-025</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.V. Catheter No 22G - Healthcare</v>
       </c>
       <c r="B27" s="4">
         <v>8500.0</v>
       </c>
-      <c r="C27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-026</v>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​I.V-HE-026</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​I.V. Catheter No 20G - Healthcare</v>
       </c>
       <c r="B28" s="4">
         <v>8500.0</v>
       </c>
-      <c r="C28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​I.-027</v>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​I.V-HE-027</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Infus set - Onehealth</v>
       </c>
       <c r="B29" s="4">
         <v>10000.0</v>
       </c>
-      <c r="C29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>INF-028</v>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INFU-ON-028</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>​Alcohol Pads - Avico</v>
       </c>
       <c r="B30" s="4">
         <v>15000.0</v>
       </c>
-      <c r="C30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>​AL-029</v>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>​ALC-AV-029</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Plesterin bulat soft - Plesterin</v>
       </c>
       <c r="B31" s="4">
         <v>500.0</v>
       </c>
-      <c r="C31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>PLE-030</v>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLES-PL-030</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Syringe 5 ml - Onehealth</v>
       </c>
       <c r="B32" s="4">
         <v>1000.0</v>
       </c>
-      <c r="C32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-031</v>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SYRI-ON-031</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Syringe 3 ml - Onehealth</v>
       </c>
       <c r="B33" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="C33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-032</v>
+        <v>1500.0</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SYRI-ON-032</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Syringe 10 ml - Onehealth</v>
       </c>
       <c r="B34" s="4">
-        <v>1500.0</v>
-      </c>
-      <c r="C34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SYR-033</v>
+        <v>2000.0</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SYRI-ON-033</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Doble spike - Onemed</v>
       </c>
       <c r="B35" s="4">
         <v>5000.0</v>
       </c>
-      <c r="C35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>DOB-034</v>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>DOBL-ON-034</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>urin bag - Onemed</v>
       </c>
       <c r="B36" s="4">
         <v>12000.0</v>
       </c>
-      <c r="C36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>URI-035</v>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>URIN-ON-035</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Needle no 24 - Terumo</v>
       </c>
       <c r="B37" s="4">
         <v>1000.0</v>
       </c>
-      <c r="C37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>NEE-036</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>NEED-TE-036</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Stetoskop - Onemed</v>
+      </c>
+      <c r="B38" s="4">
+        <v>40000.0</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>STET-ON-037</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tourniquet - Onemed</v>
+      </c>
+      <c r="B39" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TOUR-ON-038</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pispot - Onemed</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PISP-ON-039</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>strip chole - Easytouch</v>
+      </c>
+      <c r="B41" s="4">
+        <v>190000.0</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>STRI-EA-040</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>alat penggerus - Onemed</v>
+      </c>
+      <c r="B42" s="4">
+        <v>25000.0</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALAT-ON-041</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Wash gloves - T-Towel</v>
+      </c>
+      <c r="B43" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>WASH-T--042</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alkohol 70% 100ml - Onemed</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALKO-ON-043</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - Omron</v>
+      </c>
+      <c r="B45" s="4">
+        <v>360000.0</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-OM-044</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>alkohol 70% 300ml - Onemed</v>
+      </c>
+      <c r="B46" s="4">
+        <v>20000.0</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALKO-ON-045</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - Omicron</v>
+      </c>
+      <c r="B47" s="4">
+        <v>80000.0</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-OM-046</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Strip glucosa 25 - sinoheart</v>
+      </c>
+      <c r="B48" s="4">
+        <v>65000.0</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>STRI-SI-047</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>kasur decubitus - Onemed</v>
+      </c>
+      <c r="B49" s="4">
+        <v>400000.0</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>KASU-ON-048</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alat stik 3 in 1 - Easytouch</v>
+      </c>
+      <c r="B50" s="4">
+        <v>250000.0</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALAT-EA-049</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Strip chole - Easytouch</v>
+      </c>
+      <c r="B51" s="4">
+        <v>190000.0</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>STRI-EA-050</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter manual - Onemed</v>
+      </c>
+      <c r="B52" s="4">
+        <v>100000.0</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-ON-051</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Syringe 50cc LT - Onemed</v>
+      </c>
+      <c r="B53" s="4">
+        <v>12000.0</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SYRI-ON-052</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>urin bag - GEA</v>
+      </c>
+      <c r="B54" s="4">
+        <v>9000.0</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>URIN-GE-053</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensi + stetoskop - Onemed</v>
+      </c>
+      <c r="B55" s="4">
+        <v>135000.0</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-ON-054</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Arm Sling - GlowMed</v>
+      </c>
+      <c r="B56" s="4">
+        <v>32000.0</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ARM -GL-055</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Wing needle - Onemed</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3000.0</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>WING-ON-056</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Plester coklat - Chilli plast</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2000.0</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>PLES-CH-057</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter BW750 - Omicron</v>
+      </c>
+      <c r="B59" s="4">
+        <v>120000.0</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-OM-058</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Gel Jelly lubricant - Onemed</v>
+      </c>
+      <c r="B60" s="4">
+        <v>35000.0</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>GEL -ON-059</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Oximeter saturasi - Omicron</v>
+      </c>
+      <c r="B61" s="4">
+        <v>130000.0</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>OXIM-OM-060</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - iTrust</v>
+      </c>
+      <c r="B62" s="4">
+        <v>125000.0</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-IT-061</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Oximeter saturasi anak - Omicron</v>
+      </c>
+      <c r="B63" s="4">
+        <v>55000.0</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>OXIM-OM-062</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>nama</t>
   </si>
@@ -31,6 +31,12 @@
     <t>NAMA</t>
   </si>
   <si>
+    <t>HARGA BELI</t>
+  </si>
+  <si>
+    <t>HAGA JUAL TOTAL</t>
+  </si>
+  <si>
     <t>Thermoone</t>
   </si>
   <si>
@@ -265,10 +271,37 @@
     <t>Oximeter saturasi</t>
   </si>
   <si>
-    <t>iTrust</t>
+    <t>iTrust BP 121</t>
   </si>
   <si>
     <t>Oximeter saturasi anak</t>
+  </si>
+  <si>
+    <t>onecleane</t>
+  </si>
+  <si>
+    <t>wash gloves 4</t>
+  </si>
+  <si>
+    <t>LK88</t>
+  </si>
+  <si>
+    <t>Oximeter</t>
+  </si>
+  <si>
+    <t>GP 100</t>
+  </si>
+  <si>
+    <t>Thermogun</t>
+  </si>
+  <si>
+    <t>Sinocare BA801</t>
+  </si>
+  <si>
+    <t>Sinocare 50</t>
+  </si>
+  <si>
+    <t>Alat Cek Gula Darah</t>
   </si>
 </sst>
 </file>
@@ -559,7 +592,7 @@
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="6" width="29.14"/>
     <col customWidth="1" min="7" max="7" width="18.0"/>
-    <col customWidth="1" min="8" max="8" width="10.0"/>
+    <col customWidth="1" min="8" max="8" width="19.71"/>
     <col customWidth="1" min="9" max="9" width="12.0"/>
     <col customWidth="1" min="10" max="10" width="20.0"/>
     <col customWidth="1" min="11" max="11" width="18.0"/>
@@ -586,8 +619,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -595,7 +632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A63" si="1">F2 &amp; " - " &amp; E2
+        <f t="shared" ref="A2:A68" si="1">F2 &amp; " - " &amp; E2
 </f>
         <v>Termometer digital  - Thermoone</v>
       </c>
@@ -603,18 +640,18 @@
         <v>20000.0</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C63" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
+        <f t="shared" ref="C2:C68" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
 </f>
         <v>TERM-TH-001</v>
       </c>
       <c r="D2" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -630,13 +667,13 @@
         <v>CEK - S-002</v>
       </c>
       <c r="D3" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -652,13 +689,13 @@
         <v>ALCO-ON-003</v>
       </c>
       <c r="D4" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -674,13 +711,13 @@
         <v>BLOO-ON-004</v>
       </c>
       <c r="D5" s="4">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +733,13 @@
         <v>TERM-OM-005</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -718,13 +755,13 @@
         <v>SET -ON-006</v>
       </c>
       <c r="D7" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -740,13 +777,13 @@
         <v>SARU-SA-007</v>
       </c>
       <c r="D8" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -762,13 +799,13 @@
         <v>KOTA-ON-008</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -784,13 +821,13 @@
         <v>​ULT-ON-009</v>
       </c>
       <c r="D10" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -806,11 +843,11 @@
         <v>TENS--010</v>
       </c>
       <c r="D11" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -826,13 +863,13 @@
         <v>​PLE-ON-011</v>
       </c>
       <c r="D12" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -848,13 +885,13 @@
         <v>TERM-GP-012</v>
       </c>
       <c r="D13" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -870,13 +907,13 @@
         <v>ALKO-LS-013</v>
       </c>
       <c r="D14" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -892,13 +929,13 @@
         <v>POVI-ON-014</v>
       </c>
       <c r="D15" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -914,13 +951,13 @@
         <v>TEST-ON-015</v>
       </c>
       <c r="D16" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -936,13 +973,13 @@
         <v>​I.V-GE-016</v>
       </c>
       <c r="D17" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -958,10 +995,10 @@
         <v>PULS--017</v>
       </c>
       <c r="D18" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -977,13 +1014,13 @@
         <v>​MES-UP-018</v>
       </c>
       <c r="D19" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -999,10 +1036,10 @@
         <v>CELA--019</v>
       </c>
       <c r="D20" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1018,13 +1055,13 @@
         <v>​TEN-OM-020</v>
       </c>
       <c r="D21" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1040,13 +1077,13 @@
         <v>KASA-NA-021</v>
       </c>
       <c r="D22" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1062,13 +1099,13 @@
         <v>NGT -ON-022</v>
       </c>
       <c r="D23" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1084,13 +1121,13 @@
         <v>FOLE-GE-023</v>
       </c>
       <c r="D24" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1106,13 +1143,13 @@
         <v>NASA-GE-024</v>
       </c>
       <c r="D25" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1128,13 +1165,13 @@
         <v>​SYR-ON-025</v>
       </c>
       <c r="D26" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1150,13 +1187,13 @@
         <v>​I.V-HE-026</v>
       </c>
       <c r="D27" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1172,13 +1209,13 @@
         <v>​I.V-HE-027</v>
       </c>
       <c r="D28" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1194,13 +1231,13 @@
         <v>INFU-ON-028</v>
       </c>
       <c r="D29" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1216,13 +1253,13 @@
         <v>​ALC-AV-029</v>
       </c>
       <c r="D30" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1238,13 +1275,13 @@
         <v>PLES-PL-030</v>
       </c>
       <c r="D31" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1260,13 +1297,13 @@
         <v>SYRI-ON-031</v>
       </c>
       <c r="D32" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1282,13 +1319,13 @@
         <v>SYRI-ON-032</v>
       </c>
       <c r="D33" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1304,13 +1341,13 @@
         <v>SYRI-ON-033</v>
       </c>
       <c r="D34" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1326,13 +1363,13 @@
         <v>DOBL-ON-034</v>
       </c>
       <c r="D35" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -1348,13 +1385,13 @@
         <v>URIN-ON-035</v>
       </c>
       <c r="D36" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1370,13 +1407,13 @@
         <v>NEED-TE-036</v>
       </c>
       <c r="D37" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1391,11 +1428,14 @@
         <f t="shared" si="2"/>
         <v>STET-ON-037</v>
       </c>
+      <c r="D38" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E38" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1410,11 +1450,14 @@
         <f t="shared" si="2"/>
         <v>TOUR-ON-038</v>
       </c>
+      <c r="D39" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1429,11 +1472,14 @@
         <f t="shared" si="2"/>
         <v>PISP-ON-039</v>
       </c>
+      <c r="D40" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E40" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -1448,11 +1494,14 @@
         <f t="shared" si="2"/>
         <v>STRI-EA-040</v>
       </c>
+      <c r="D41" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E41" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1467,11 +1516,14 @@
         <f t="shared" si="2"/>
         <v>ALAT-ON-041</v>
       </c>
+      <c r="D42" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E42" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -1486,11 +1538,14 @@
         <f t="shared" si="2"/>
         <v>WASH-T--042</v>
       </c>
+      <c r="D43" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E43" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -1505,11 +1560,14 @@
         <f t="shared" si="2"/>
         <v>ALKO-ON-043</v>
       </c>
+      <c r="D44" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E44" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -1524,11 +1582,14 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-044</v>
       </c>
+      <c r="D45" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E45" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1543,11 +1604,14 @@
         <f t="shared" si="2"/>
         <v>ALKO-ON-045</v>
       </c>
+      <c r="D46" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1562,11 +1626,14 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-046</v>
       </c>
+      <c r="D47" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E47" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1581,11 +1648,14 @@
         <f t="shared" si="2"/>
         <v>STRI-SI-047</v>
       </c>
+      <c r="D48" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E48" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -1600,11 +1670,14 @@
         <f t="shared" si="2"/>
         <v>KASU-ON-048</v>
       </c>
+      <c r="D49" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E49" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -1619,11 +1692,14 @@
         <f t="shared" si="2"/>
         <v>ALAT-EA-049</v>
       </c>
+      <c r="D50" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E50" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -1638,11 +1714,14 @@
         <f t="shared" si="2"/>
         <v>STRI-EA-050</v>
       </c>
+      <c r="D51" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E51" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -1657,11 +1736,14 @@
         <f t="shared" si="2"/>
         <v>TENS-ON-051</v>
       </c>
+      <c r="D52" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E52" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -1676,11 +1758,14 @@
         <f t="shared" si="2"/>
         <v>SYRI-ON-052</v>
       </c>
+      <c r="D53" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E53" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -1695,11 +1780,14 @@
         <f t="shared" si="2"/>
         <v>URIN-GE-053</v>
       </c>
+      <c r="D54" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E54" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -1714,11 +1802,14 @@
         <f t="shared" si="2"/>
         <v>TENS-ON-054</v>
       </c>
+      <c r="D55" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E55" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -1733,11 +1824,14 @@
         <f t="shared" si="2"/>
         <v>ARM -GL-055</v>
       </c>
+      <c r="D56" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -1752,11 +1846,14 @@
         <f t="shared" si="2"/>
         <v>WING-ON-056</v>
       </c>
+      <c r="D57" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E57" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -1771,11 +1868,14 @@
         <f t="shared" si="2"/>
         <v>PLES-CH-057</v>
       </c>
+      <c r="D58" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E58" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -1790,11 +1890,14 @@
         <f t="shared" si="2"/>
         <v>TENS-OM-058</v>
       </c>
+      <c r="D59" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E59" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -1809,11 +1912,14 @@
         <f t="shared" si="2"/>
         <v>GEL -ON-059</v>
       </c>
+      <c r="D60" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E60" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -1828,17 +1934,20 @@
         <f t="shared" si="2"/>
         <v>OXIM-OM-060</v>
       </c>
+      <c r="D61" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E61" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Tensimeter digital - iTrust</v>
+        <v>Tensimeter digital - iTrust BP 121</v>
       </c>
       <c r="B62" s="4">
         <v>125000.0</v>
@@ -1847,11 +1956,14 @@
         <f t="shared" si="2"/>
         <v>TENS-IT-061</v>
       </c>
+      <c r="D62" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E62" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -1866,18 +1978,126 @@
         <f t="shared" si="2"/>
         <v>OXIM-OM-062</v>
       </c>
+      <c r="D63" s="4">
+        <v>10.0</v>
+      </c>
       <c r="E63" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wash gloves 4 - onecleane</v>
+      </c>
+      <c r="B64" s="4">
+        <v>15000.0</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>WASH-ON-063</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Oximeter - LK88</v>
+      </c>
+      <c r="B65" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>OXIM-LK-064</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Thermogun - GP 100</v>
+      </c>
+      <c r="B66" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>THER-GP-065</v>
+      </c>
+      <c r="D66" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - Sinocare BA801</v>
+      </c>
+      <c r="B67" s="4">
+        <v>250000.0</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-SI-066</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Alat Cek Gula Darah - Sinocare 50</v>
+      </c>
+      <c r="B68" s="4">
+        <v>150000.0</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALAT-SI-067</v>
+      </c>
+      <c r="D68" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>nama</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Alat Cek Gula Darah</t>
+  </si>
+  <si>
+    <t>Sinocare BSX 516</t>
+  </si>
+  <si>
+    <t>Saturasi Oksigen</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A68" si="1">F2 &amp; " - " &amp; E2
+        <f t="shared" ref="A2:A71" si="1">F2 &amp; " - " &amp; E2
 </f>
         <v>Termometer digital  - Thermoone</v>
       </c>
@@ -640,7 +646,7 @@
         <v>20000.0</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C68" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
+        <f t="shared" ref="C2:C71" si="2">UPPER(LEFT(F2,4) &amp; "-" &amp; LEFT(E2,2) &amp; "-" &amp; TEXT(ROW(A2)-1,"000"))
 </f>
         <v>TERM-TH-001</v>
       </c>
@@ -878,7 +884,7 @@
         <v>Termometer digital  - GP care</v>
       </c>
       <c r="B13" s="4">
-        <v>18000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1620,7 +1626,7 @@
         <v>Tensimeter digital - Omicron</v>
       </c>
       <c r="B47" s="4">
-        <v>80000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1950,7 +1956,7 @@
         <v>Tensimeter digital - iTrust BP 121</v>
       </c>
       <c r="B62" s="4">
-        <v>125000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2038,7 +2044,7 @@
         <v>Thermogun - GP 100</v>
       </c>
       <c r="B66" s="4">
-        <v>50000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2098,9 +2104,72 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Tensimeter digital - Sinocare BSX 516</v>
+      </c>
+      <c r="B69" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TENS-SI-068</v>
+      </c>
+      <c r="D69" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturasi Oksigen - Omicron</v>
+      </c>
+      <c r="B70" s="4">
+        <v>120000.0</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SATU-OM-069</v>
+      </c>
+      <c r="D70" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturasi Oksigen - GEA</v>
+      </c>
+      <c r="B71" s="4">
+        <v>210000.0</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SATU-GE-070</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>nama</t>
   </si>
@@ -109,10 +109,10 @@
     <t>​I.V. Catheter no 22</t>
   </si>
   <si>
+    <t>A22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pulse Oximeter </t>
-  </si>
-  <si>
-    <t>upheal</t>
   </si>
   <si>
     <t xml:space="preserve">​Mesin Nebulizer </t>
@@ -314,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -338,6 +338,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -357,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -372,7 +376,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -659,6 +673,9 @@
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="6">
+        <v>18000.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
@@ -681,6 +698,9 @@
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="6">
+        <v>46000.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="str">
@@ -703,6 +723,9 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="7">
+        <v>9500.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="str">
@@ -725,6 +748,9 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="G5" s="7">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="str">
@@ -747,6 +773,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G6" s="8">
+        <v>47000.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="str">
@@ -769,6 +798,9 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G7" s="8">
+        <v>13500.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="str">
@@ -791,6 +823,9 @@
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G8" s="7">
+        <v>37000.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="str">
@@ -813,6 +848,9 @@
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="7">
+        <v>28000.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="str">
@@ -834,6 +872,9 @@
       </c>
       <c r="F10" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3500.0</v>
       </c>
     </row>
     <row r="11">
@@ -855,6 +896,9 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G11" s="9">
+        <v>55000.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="str">
@@ -877,6 +921,9 @@
       <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G12" s="7">
+        <v>650.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="str">
@@ -899,6 +946,9 @@
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G13" s="7">
+        <v>16000.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="str">
@@ -921,6 +971,9 @@
       <c r="F14" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G14" s="7">
+        <v>4500.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="str">
@@ -943,6 +996,9 @@
       <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G15" s="7">
+        <v>7500.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
@@ -965,6 +1021,9 @@
       <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G16" s="7">
+        <v>3000.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="str">
@@ -984,50 +1043,62 @@
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3600.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Pulse Oximeter  - </v>
+        <v>Pulse Oximeter  - A22</v>
       </c>
       <c r="B18" s="4">
         <v>57000.0</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>PULS--017</v>
+        <v>PULS-A2-017</v>
       </c>
       <c r="D18" s="4">
         <v>10.0</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="7">
+        <v>50000.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>​Mesin Nebulizer  - upheal</v>
+        <v>​Mesin Nebulizer  - omicron</v>
       </c>
       <c r="B19" s="4">
         <v>76500.0</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>​MES-UP-018</v>
+        <v>​MES-OM-018</v>
       </c>
       <c r="D19" s="4">
         <v>10.0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="G19" s="9">
+        <v>40000.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
@@ -1047,6 +1118,9 @@
       <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="G20" s="9">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="str">
@@ -1069,6 +1143,9 @@
       <c r="F21" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="G21" s="7">
+        <v>110000.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="str">
@@ -1091,6 +1168,9 @@
       <c r="F22" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="G22" s="7">
+        <v>3650.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="str">
@@ -1113,6 +1193,9 @@
       <c r="F23" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G23" s="7">
+        <v>11000.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="str">
@@ -1135,6 +1218,9 @@
       <c r="F24" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="G24" s="7">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="str">
@@ -1157,6 +1243,9 @@
       <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G25" s="7">
+        <v>7000.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="str">
@@ -1179,6 +1268,9 @@
       <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="G26" s="7">
+        <v>6000.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="str">
@@ -1201,6 +1293,9 @@
       <c r="F27" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="G27" s="7">
+        <v>3650.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="str">
@@ -1223,6 +1318,9 @@
       <c r="F28" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="G28" s="7">
+        <v>3650.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="str">
@@ -1245,6 +1343,9 @@
       <c r="F29" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="G29" s="7">
+        <v>3000.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="str">
@@ -1267,6 +1368,9 @@
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="G30" s="7">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="str">
@@ -1289,6 +1393,9 @@
       <c r="F31" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="G31" s="9">
+        <v>37000.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="str">
@@ -1311,6 +1418,9 @@
       <c r="F32" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="G32" s="7">
+        <v>650.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="str">
@@ -1333,6 +1443,9 @@
       <c r="F33" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="G33" s="7">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="str">
@@ -1355,6 +1468,9 @@
       <c r="F34" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="G34" s="7">
+        <v>1000.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="str">
@@ -1377,6 +1493,9 @@
       <c r="F35" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="G35" s="7">
+        <v>2500.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="str">
@@ -1399,6 +1518,9 @@
       <c r="F36" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="G36" s="7">
+        <v>5500.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="str">
@@ -1421,6 +1543,9 @@
       <c r="F37" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="G37" s="9">
+        <v>60000.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="str">
@@ -1443,6 +1568,9 @@
       <c r="F38" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G38" s="4">
+        <v>30000.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="str">
@@ -1465,6 +1593,9 @@
       <c r="F39" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="G39" s="4">
+        <v>11000.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="str">
@@ -1487,6 +1618,9 @@
       <c r="F40" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="G40" s="4">
+        <v>5000.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="str">
@@ -1509,6 +1643,9 @@
       <c r="F41" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="G41" s="4">
+        <v>160000.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="str">
@@ -1531,6 +1668,9 @@
       <c r="F42" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="G42" s="4">
+        <v>20000.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="str">
@@ -1553,6 +1693,9 @@
       <c r="F43" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="G43" s="4">
+        <v>11000.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="str">
@@ -1575,6 +1718,9 @@
       <c r="F44" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G44" s="4">
+        <v>5000.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="str">
@@ -1597,6 +1743,9 @@
       <c r="F45" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G45" s="4">
+        <v>335000.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="str">
@@ -1619,6 +1768,9 @@
       <c r="F46" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="G46" s="4">
+        <v>11000.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="str">
@@ -1641,6 +1793,9 @@
       <c r="F47" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G47" s="4">
+        <v>67000.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="str">
@@ -1663,6 +1818,9 @@
       <c r="F48" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="G48" s="4">
+        <v>62000.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="str">
@@ -1685,6 +1843,9 @@
       <c r="F49" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="G49" s="4">
+        <v>344000.0</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="str">
@@ -1707,6 +1868,9 @@
       <c r="F50" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="G50" s="4">
+        <v>229000.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="str">
@@ -1729,6 +1893,9 @@
       <c r="F51" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="G51" s="4">
+        <v>160000.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="str">
@@ -1751,6 +1918,9 @@
       <c r="F52" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="G52" s="4">
+        <v>90000.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="str">
@@ -1773,6 +1943,9 @@
       <c r="F53" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="G53" s="4">
+        <v>6000.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="str">
@@ -1795,6 +1968,9 @@
       <c r="F54" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="G54" s="4">
+        <v>7000.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="str">
@@ -1817,6 +1993,9 @@
       <c r="F55" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="G55" s="4">
+        <v>130000.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="str">
@@ -1839,6 +2018,9 @@
       <c r="F56" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="G56" s="4">
+        <v>20000.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="str">
@@ -1861,6 +2043,9 @@
       <c r="F57" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="G57" s="4">
+        <v>1000.0</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="str">
@@ -1883,6 +2068,9 @@
       <c r="F58" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="G58" s="4">
+        <v>1000.0</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="str">
@@ -1905,6 +2093,9 @@
       <c r="F59" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="G59" s="4">
+        <v>85000.0</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="str">
@@ -1927,6 +2118,9 @@
       <c r="F60" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="G60" s="4">
+        <v>28000.0</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="str">
@@ -1949,6 +2143,9 @@
       <c r="F61" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="G61" s="4">
+        <v>115000.0</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="str">
@@ -1971,6 +2168,9 @@
       <c r="F62" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G62" s="4">
+        <v>103000.0</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="str">
@@ -1993,6 +2193,9 @@
       <c r="F63" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="G63" s="4">
+        <v>45000.0</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="str">
@@ -2037,6 +2240,9 @@
       <c r="F65" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="G65" s="4">
+        <v>23000.0</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="str">
@@ -2059,6 +2265,9 @@
       <c r="F66" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="G66" s="4">
+        <v>41000.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="str">
@@ -2081,6 +2290,9 @@
       <c r="F67" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G67" s="4">
+        <v>20000.0</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="str">
@@ -2103,6 +2315,9 @@
       <c r="F68" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="G68" s="4">
+        <v>100000.0</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="str">
@@ -2125,6 +2340,9 @@
       <c r="F69" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G69" s="4">
+        <v>155000.0</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="str">
@@ -2147,6 +2365,9 @@
       <c r="F70" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="G70" s="4">
+        <v>115000.0</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="str">
@@ -2168,6 +2389,9 @@
       </c>
       <c r="F71" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="G71" s="4">
+        <v>187000.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1"/>
